--- a/config_12.7/act_ty_gifts_config.xlsx
+++ b/config_12.7/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -489,15 +489,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"hflb_btn_bx","ty_icon_yxb_3","act_012_gelb_gelb_icon_hjtjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_012_gelb_gelb_icon_hjtjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_012_gelb_gelb_icon_hjtjc"</t>
-  </si>
-  <si>
     <t>加成效果仅限购买礼包当日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -542,6 +533,15 @@
   <si>
     <t>购买礼包，在游戏中获取的雪球在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yxb_3","act_013_xqlb_jclb_icon_xqjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yxb_4","act_013_xqlb_jclb_icon_xqjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yxb_5","act_013_xqlb_jclb_icon_xqjc"</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1068,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5">
         <v>1638835200</v>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A14:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1818,25 +1818,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1862,25 +1862,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1906,25 +1906,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="K16" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1950,25 +1950,25 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="L17" s="5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
